--- a/lab5/task3.xlsx
+++ b/lab5/task3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\studies\qa\lab5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8E4A86-38DB-4BB2-8F44-DA41C7C4C7B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1671E9F-C467-4F8A-A168-94806C3DE8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="11">
   <si>
     <t>условие</t>
   </si>
@@ -393,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S80"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -408,20 +408,14 @@
     <col min="5" max="5" width="4.5703125" style="2" customWidth="1"/>
     <col min="6" max="6" width="4.140625" style="2" customWidth="1"/>
     <col min="7" max="7" width="3.85546875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="4.140625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="4" style="2" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" style="2" customWidth="1"/>
-    <col min="12" max="13" width="5.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="5.85546875" style="2" customWidth="1"/>
-    <col min="15" max="15" width="5" style="2" customWidth="1"/>
-    <col min="16" max="16" width="4.7109375" style="2" customWidth="1"/>
-    <col min="17" max="17" width="5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="5.140625" style="2" customWidth="1"/>
-    <col min="19" max="19" width="5.28515625" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="2"/>
+    <col min="8" max="8" width="4" style="2" customWidth="1"/>
+    <col min="9" max="9" width="3.28515625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="2" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -448,37 +442,13 @@
         <v>7</v>
       </c>
       <c r="J1" s="3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K1" s="3">
-        <v>9</v>
-      </c>
-      <c r="L1" s="3">
-        <v>10</v>
-      </c>
-      <c r="M1" s="3">
         <v>11</v>
       </c>
-      <c r="N1" s="3">
-        <v>12</v>
-      </c>
-      <c r="O1" s="3">
-        <v>13</v>
-      </c>
-      <c r="P1" s="3">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="3">
-        <v>15</v>
-      </c>
-      <c r="R1" s="3">
-        <v>16</v>
-      </c>
-      <c r="S1" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -507,37 +477,13 @@
         <v>8</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -571,32 +517,8 @@
       <c r="K3" t="s">
         <v>9</v>
       </c>
-      <c r="L3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -619,10 +541,10 @@
         <v>9</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J4" t="s">
         <v>9</v>
@@ -630,32 +552,8 @@
       <c r="K4" t="s">
         <v>9</v>
       </c>
-      <c r="L4" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O4" t="s">
-        <v>9</v>
-      </c>
-      <c r="P4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>8</v>
-      </c>
-      <c r="R4" t="s">
-        <v>9</v>
-      </c>
-      <c r="S4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -683,38 +581,14 @@
       <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="R5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="S5" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="J5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -748,32 +622,8 @@
       <c r="K6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -783,13 +633,8 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -801,14 +646,9 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="S8" s="1"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -829,43 +669,19 @@
         <v>10</v>
       </c>
       <c r="H9" s="3">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I9" s="3">
-        <v>12</v>
-      </c>
-      <c r="J9" s="3">
-        <v>8</v>
-      </c>
-      <c r="K9" s="3">
         <v>3</v>
       </c>
-      <c r="L9" s="3">
-        <v>17</v>
-      </c>
-      <c r="M9" s="3">
-        <v>12</v>
-      </c>
-      <c r="N9" s="3">
-        <v>15</v>
-      </c>
-      <c r="O9" s="5">
-        <v>10</v>
-      </c>
-      <c r="P9" s="2">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>12</v>
-      </c>
-      <c r="R9" s="5">
+      <c r="J9" s="5">
         <v>5</v>
       </c>
-      <c r="S9" s="5">
+      <c r="K9" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -875,13 +691,8 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -891,13 +702,8 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -907,13 +713,8 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -923,13 +724,8 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -939,13 +735,8 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -955,13 +746,8 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -971,13 +757,8 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -987,13 +768,8 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1003,13 +779,8 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1019,13 +790,8 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1035,13 +801,8 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1051,13 +812,8 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1067,13 +823,8 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1083,13 +834,8 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1099,13 +845,8 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1115,13 +856,8 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1131,13 +867,8 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1147,13 +878,8 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1163,13 +889,8 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1179,13 +900,8 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1195,13 +911,8 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1211,13 +922,8 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1227,13 +933,8 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1243,13 +944,8 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1259,13 +955,8 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1275,13 +966,8 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1291,13 +977,8 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1307,13 +988,8 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1323,13 +999,8 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1339,13 +1010,8 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1355,13 +1021,8 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1371,13 +1032,8 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1387,13 +1043,8 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1403,13 +1054,8 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1419,13 +1065,8 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1435,13 +1076,8 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1451,13 +1087,8 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1467,13 +1098,8 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -1483,13 +1109,8 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -1499,13 +1120,8 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -1515,13 +1131,8 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -1531,13 +1142,8 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -1547,13 +1153,8 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -1563,13 +1164,8 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -1579,13 +1175,8 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1595,13 +1186,8 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -1611,13 +1197,8 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -1627,13 +1208,8 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -1643,13 +1219,8 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -1659,13 +1230,8 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -1675,13 +1241,8 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -1691,13 +1252,8 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -1707,13 +1263,8 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -1723,13 +1274,8 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -1739,13 +1285,8 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -1755,13 +1296,8 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -1771,13 +1307,8 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -1787,13 +1318,8 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -1803,13 +1329,8 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -1819,13 +1340,8 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -1835,13 +1351,8 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -1851,13 +1362,8 @@
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -1867,13 +1373,8 @@
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -1883,13 +1384,8 @@
       <c r="G73" s="3"/>
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -1899,13 +1395,8 @@
       <c r="G74" s="3"/>
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -1915,13 +1406,8 @@
       <c r="G75" s="3"/>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -1931,13 +1417,8 @@
       <c r="G76" s="3"/>
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -1947,13 +1428,8 @@
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -1963,13 +1439,8 @@
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -1979,13 +1450,8 @@
       <c r="G79" s="3"/>
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -1995,11 +1461,6 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
